--- a/scripts/deduplicate_project/results/excel/toybox_0_7_5_infer.xlsx
+++ b/scripts/deduplicate_project/results/excel/toybox_0_7_5_infer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/Documents/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F8B6773F-4F98-4248-B27A-34CC256005CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163261E-7FDF-974A-BFB4-F13C20E32C9A}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="13860" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="69">
   <si>
     <t>line</t>
   </si>
@@ -218,13 +220,34 @@
   </si>
   <si>
     <t>Count of variability2</t>
+  </si>
+  <si>
+    <t>manual_features</t>
+  </si>
+  <si>
+    <t>num_manual_features</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>CONFIG_MOUNTPOINT, -CONFIG_TOYBOX_FREE</t>
+  </si>
+  <si>
+    <t>CONFIG_ONEIT</t>
+  </si>
+  <si>
+    <t>CONFIG_UPTIME</t>
+  </si>
+  <si>
+    <t>CONFIG_NOHUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -768,7 +791,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.807622453707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.807622453707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -1935,7 +1958,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1995,22 +2018,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H114" totalsRowCount="1">
-  <autoFilter ref="A1:H113"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H113">
-    <sortCondition descending="1" ref="F1:F113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J114" totalsRowCount="1">
+  <autoFilter ref="A1:J113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J112">
+    <sortCondition ref="B1:B113"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="line"/>
-    <tableColumn id="2" name="filename"/>
-    <tableColumn id="3" name="tool"/>
-    <tableColumn id="4" name="target"/>
-    <tableColumn id="5" name="type"/>
-    <tableColumn id="6" name="num_configs" totalsRowFunction="custom">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="line"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="filename"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tool"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="target"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="num_configs" totalsRowFunction="custom">
       <totalsRowFormula>MEDIAN(F36:F113)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="variability"/>
-    <tableColumn id="8" name="classification"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="variability"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="classification"/>
+    <tableColumn id="9" xr3:uid="{EB4C440B-3CF6-C143-8A8A-3F70423AD095}" name="manual_features"/>
+    <tableColumn id="10" xr3:uid="{0F1A17BA-71A0-2242-8136-04DC6CAFB90C}" name="num_manual_features"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2312,21 +2337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2337,7 +2362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -2348,7 +2373,7 @@
         <v>0.30357142857142855</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -2359,7 +2384,7 @@
         <v>0.6964285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -2376,21 +2401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2415,8 +2443,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>145</v>
       </c>
@@ -2439,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>160</v>
       </c>
@@ -2462,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>286</v>
       </c>
@@ -2485,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>625</v>
       </c>
@@ -2510,8 +2544,11 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>707</v>
       </c>
@@ -2534,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>769</v>
       </c>
@@ -2557,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1257</v>
       </c>
@@ -2582,8 +2619,11 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1268</v>
       </c>
@@ -2608,8 +2648,11 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>33</v>
       </c>
@@ -2632,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>127</v>
       </c>
@@ -2658,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>101</v>
       </c>
@@ -2681,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>213</v>
       </c>
@@ -2707,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>223</v>
       </c>
@@ -2733,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>225</v>
       </c>
@@ -2759,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>227</v>
       </c>
@@ -2785,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>228</v>
       </c>
@@ -2811,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>232</v>
       </c>
@@ -2837,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>233</v>
       </c>
@@ -2863,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>234</v>
       </c>
@@ -2889,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>263</v>
       </c>
@@ -2915,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>264</v>
       </c>
@@ -2941,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>373</v>
       </c>
@@ -2967,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>383</v>
       </c>
@@ -2993,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>389</v>
       </c>
@@ -3019,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>458</v>
       </c>
@@ -3045,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>736</v>
       </c>
@@ -3071,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>737</v>
       </c>
@@ -3097,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>790</v>
       </c>
@@ -3123,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>794</v>
       </c>
@@ -3149,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>52</v>
       </c>
@@ -3172,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>53</v>
       </c>
@@ -3195,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>92</v>
       </c>
@@ -3220,8 +3263,11 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>101</v>
       </c>
@@ -3247,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>126</v>
       </c>
@@ -3272,8 +3318,11 @@
       <c r="H35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>448</v>
       </c>
@@ -3296,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>1453</v>
       </c>
@@ -3322,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1456</v>
       </c>
@@ -3348,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>1464</v>
       </c>
@@ -3374,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>1468</v>
       </c>
@@ -3400,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>1506</v>
       </c>
@@ -3423,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>1513</v>
       </c>
@@ -3446,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>1514</v>
       </c>
@@ -3472,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>1793</v>
       </c>
@@ -3495,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>143</v>
       </c>
@@ -3521,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>147</v>
       </c>
@@ -3547,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>157</v>
       </c>
@@ -3573,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>203</v>
       </c>
@@ -3599,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>63</v>
       </c>
@@ -3622,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>251</v>
       </c>
@@ -3648,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>253</v>
       </c>
@@ -3674,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>254</v>
       </c>
@@ -3700,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>219</v>
       </c>
@@ -3723,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>238</v>
       </c>
@@ -3746,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>242</v>
       </c>
@@ -3769,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>150</v>
       </c>
@@ -3795,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>151</v>
       </c>
@@ -3821,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>203</v>
       </c>
@@ -3847,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>49</v>
       </c>
@@ -3870,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>349</v>
       </c>
@@ -3896,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>369</v>
       </c>
@@ -3922,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>377</v>
       </c>
@@ -3948,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>397</v>
       </c>
@@ -3974,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>424</v>
       </c>
@@ -4000,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>428</v>
       </c>
@@ -4026,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>479</v>
       </c>
@@ -4052,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>90</v>
       </c>
@@ -4075,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>128</v>
       </c>
@@ -4101,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>145</v>
       </c>
@@ -4127,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>111</v>
       </c>
@@ -4150,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>26</v>
       </c>
@@ -4176,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>113</v>
       </c>
@@ -4199,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>130</v>
       </c>
@@ -4222,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>40</v>
       </c>
@@ -4245,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>287</v>
       </c>
@@ -4271,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>36</v>
       </c>
@@ -4294,35 +4343,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>258</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
         <v>72</v>
-      </c>
-      <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77">
-        <v>516</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>73</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -4345,8 +4400,14 @@
       <c r="H78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>89</v>
       </c>
@@ -4368,8 +4429,11 @@
       <c r="G79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>193</v>
       </c>
@@ -4392,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>136</v>
       </c>
@@ -4415,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>184</v>
       </c>
@@ -4441,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>215</v>
       </c>
@@ -4467,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>95</v>
       </c>
@@ -4493,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>86</v>
       </c>
@@ -4519,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>570</v>
       </c>
@@ -4542,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>671</v>
       </c>
@@ -4568,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>694</v>
       </c>
@@ -4594,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>726</v>
       </c>
@@ -4617,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>779</v>
       </c>
@@ -4640,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>912</v>
       </c>
@@ -4663,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>928</v>
       </c>
@@ -4686,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>72</v>
       </c>
@@ -4712,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>314</v>
       </c>
@@ -4738,12 +4802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -4752,10 +4816,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F95">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4763,8 +4827,14 @@
       <c r="H95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>82</v>
       </c>
@@ -4789,8 +4859,11 @@
       <c r="H96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>85</v>
       </c>
@@ -4816,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>88</v>
       </c>
@@ -4842,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>92</v>
       </c>
@@ -4868,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>30</v>
       </c>
@@ -4894,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>20</v>
       </c>
@@ -4917,35 +4990,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>501</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
         <v>27</v>
-      </c>
-      <c r="B102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102">
-        <v>485</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>39</v>
       </c>
       <c r="B103" t="s">
         <v>49</v>
@@ -4968,8 +5047,14 @@
       <c r="H103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>68</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>82</v>
       </c>
@@ -4994,8 +5079,11 @@
       <c r="H104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>94</v>
       </c>
@@ -5021,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>115</v>
       </c>
@@ -5047,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>62</v>
       </c>
@@ -5073,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>68</v>
       </c>
@@ -5099,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>76</v>
       </c>
@@ -5125,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>79</v>
       </c>
@@ -5151,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>118</v>
       </c>
@@ -5174,12 +5262,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -5188,10 +5276,10 @@
         <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -5199,8 +5287,14 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>68</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>42</v>
       </c>
@@ -5222,8 +5316,11 @@
       <c r="G113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="F114">
         <f>MEDIAN(F36:F113)</f>
         <v>518</v>
